--- a/SchedulingData/dynamic12/pso/scheduling1_17.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>64.56</v>
+        <v>55.28</v>
       </c>
       <c r="E2" t="n">
-        <v>26.724</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="3">
@@ -485,169 +485,169 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>55.28</v>
       </c>
       <c r="D3" t="n">
-        <v>52.36</v>
+        <v>110.58</v>
       </c>
       <c r="E3" t="n">
-        <v>26.464</v>
+        <v>22.252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.22</v>
+        <v>49.12</v>
       </c>
       <c r="E4" t="n">
-        <v>27.448</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64.56</v>
+        <v>110.58</v>
       </c>
       <c r="D5" t="n">
-        <v>126.96</v>
+        <v>171.98</v>
       </c>
       <c r="E5" t="n">
-        <v>22.104</v>
+        <v>18.712</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>126.96</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>178.9</v>
+        <v>40.5</v>
       </c>
       <c r="E6" t="n">
-        <v>18.54</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>64.3</v>
+        <v>53.2</v>
       </c>
       <c r="E7" t="n">
-        <v>27.72</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>67.73999999999999</v>
+        <v>77.06</v>
       </c>
       <c r="E8" t="n">
-        <v>26.876</v>
+        <v>25.464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>52.36</v>
+        <v>53.2</v>
       </c>
       <c r="D9" t="n">
-        <v>116.48</v>
+        <v>105.14</v>
       </c>
       <c r="E9" t="n">
-        <v>24.132</v>
+        <v>21.816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>52.22</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>118.62</v>
+        <v>52.56</v>
       </c>
       <c r="E10" t="n">
-        <v>23.908</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>118.62</v>
+        <v>171.98</v>
       </c>
       <c r="D11" t="n">
-        <v>177.16</v>
+        <v>248.04</v>
       </c>
       <c r="E11" t="n">
-        <v>20.164</v>
+        <v>15.176</v>
       </c>
     </row>
     <row r="12">
@@ -656,226 +656,226 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>105.14</v>
       </c>
       <c r="D12" t="n">
-        <v>53.6</v>
+        <v>149.2</v>
       </c>
       <c r="E12" t="n">
-        <v>25.84</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>177.16</v>
+        <v>149.2</v>
       </c>
       <c r="D13" t="n">
-        <v>227.36</v>
+        <v>213.68</v>
       </c>
       <c r="E13" t="n">
-        <v>17.284</v>
+        <v>14.692</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>67.73999999999999</v>
+        <v>52.56</v>
       </c>
       <c r="D14" t="n">
-        <v>140.76</v>
+        <v>100.86</v>
       </c>
       <c r="E14" t="n">
-        <v>22.664</v>
+        <v>24.684</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>64.3</v>
+        <v>213.68</v>
       </c>
       <c r="D15" t="n">
-        <v>114.08</v>
+        <v>296.08</v>
       </c>
       <c r="E15" t="n">
-        <v>23.872</v>
+        <v>10.532</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>114.08</v>
+        <v>40.5</v>
       </c>
       <c r="D16" t="n">
-        <v>189.08</v>
+        <v>78.3</v>
       </c>
       <c r="E16" t="n">
-        <v>20.452</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>116.48</v>
+        <v>100.86</v>
       </c>
       <c r="D17" t="n">
-        <v>162.1</v>
+        <v>172.86</v>
       </c>
       <c r="E17" t="n">
-        <v>20.7</v>
+        <v>20.604</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>140.76</v>
+        <v>77.06</v>
       </c>
       <c r="D18" t="n">
-        <v>209.78</v>
+        <v>135.8</v>
       </c>
       <c r="E18" t="n">
-        <v>19.832</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>162.1</v>
+        <v>172.86</v>
       </c>
       <c r="D19" t="n">
-        <v>226.5</v>
+        <v>237.52</v>
       </c>
       <c r="E19" t="n">
-        <v>18.34</v>
+        <v>18.228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>53.6</v>
+        <v>49.12</v>
       </c>
       <c r="D20" t="n">
-        <v>91.3</v>
+        <v>134.66</v>
       </c>
       <c r="E20" t="n">
-        <v>23.2</v>
+        <v>22.824</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>91.3</v>
+        <v>78.3</v>
       </c>
       <c r="D21" t="n">
-        <v>150.3</v>
+        <v>131.32</v>
       </c>
       <c r="E21" t="n">
-        <v>20.88</v>
+        <v>21.808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>150.3</v>
+        <v>131.32</v>
       </c>
       <c r="D22" t="n">
-        <v>212.3</v>
+        <v>186.74</v>
       </c>
       <c r="E22" t="n">
-        <v>16.8</v>
+        <v>18.376</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>212.3</v>
+        <v>135.8</v>
       </c>
       <c r="D23" t="n">
-        <v>270.7</v>
+        <v>174.9</v>
       </c>
       <c r="E23" t="n">
-        <v>14.08</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>189.08</v>
+        <v>237.52</v>
       </c>
       <c r="D24" t="n">
-        <v>219.24</v>
+        <v>298.06</v>
       </c>
       <c r="E24" t="n">
-        <v>18.076</v>
+        <v>15.264</v>
       </c>
     </row>
     <row r="25">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>270.7</v>
+        <v>296.08</v>
       </c>
       <c r="D25" t="n">
-        <v>326.86</v>
+        <v>362.34</v>
       </c>
       <c r="E25" t="n">
-        <v>11.064</v>
+        <v>7.516</v>
       </c>
     </row>
     <row r="26">
@@ -922,131 +922,131 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>219.24</v>
+        <v>298.06</v>
       </c>
       <c r="D26" t="n">
-        <v>270.16</v>
+        <v>372.66</v>
       </c>
       <c r="E26" t="n">
-        <v>14.604</v>
+        <v>11.904</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>178.9</v>
+        <v>174.9</v>
       </c>
       <c r="D27" t="n">
-        <v>243.9</v>
+        <v>214.14</v>
       </c>
       <c r="E27" t="n">
-        <v>15.18</v>
+        <v>16.656</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>326.86</v>
+        <v>134.66</v>
       </c>
       <c r="D28" t="n">
-        <v>364.12</v>
+        <v>201.86</v>
       </c>
       <c r="E28" t="n">
-        <v>8.468</v>
+        <v>19.744</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>226.5</v>
+        <v>186.74</v>
       </c>
       <c r="D29" t="n">
-        <v>291.7</v>
+        <v>231.46</v>
       </c>
       <c r="E29" t="n">
-        <v>14.44</v>
+        <v>15.544</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>270.16</v>
+        <v>231.46</v>
       </c>
       <c r="D30" t="n">
-        <v>319.1</v>
+        <v>276.84</v>
       </c>
       <c r="E30" t="n">
-        <v>11.82</v>
+        <v>12.136</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>227.36</v>
+        <v>372.66</v>
       </c>
       <c r="D31" t="n">
-        <v>282.04</v>
+        <v>437.06</v>
       </c>
       <c r="E31" t="n">
-        <v>13.436</v>
+        <v>9.044</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>291.7</v>
+        <v>201.86</v>
       </c>
       <c r="D32" t="n">
-        <v>358.7</v>
+        <v>261.46</v>
       </c>
       <c r="E32" t="n">
-        <v>11.36</v>
+        <v>16.384</v>
       </c>
     </row>
     <row r="33">
@@ -1055,74 +1055,74 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>358.7</v>
+        <v>248.04</v>
       </c>
       <c r="D33" t="n">
-        <v>424.74</v>
+        <v>311.94</v>
       </c>
       <c r="E33" t="n">
-        <v>8.396000000000001</v>
+        <v>12.856</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>364.12</v>
+        <v>261.46</v>
       </c>
       <c r="D34" t="n">
-        <v>440.56</v>
+        <v>318.18</v>
       </c>
       <c r="E34" t="n">
-        <v>5.444</v>
+        <v>13.832</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>282.04</v>
+        <v>362.34</v>
       </c>
       <c r="D35" t="n">
-        <v>337.78</v>
+        <v>405.52</v>
       </c>
       <c r="E35" t="n">
-        <v>10.472</v>
+        <v>4.828</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>243.9</v>
+        <v>311.94</v>
       </c>
       <c r="D36" t="n">
-        <v>315.46</v>
+        <v>377.56</v>
       </c>
       <c r="E36" t="n">
-        <v>10.644</v>
+        <v>9.384</v>
       </c>
     </row>
     <row r="37">
@@ -1131,93 +1131,93 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>337.78</v>
+        <v>214.14</v>
       </c>
       <c r="D37" t="n">
-        <v>375.96</v>
+        <v>269.24</v>
       </c>
       <c r="E37" t="n">
-        <v>7.784</v>
+        <v>13.776</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>319.1</v>
+        <v>269.24</v>
       </c>
       <c r="D38" t="n">
-        <v>367.32</v>
+        <v>320.68</v>
       </c>
       <c r="E38" t="n">
-        <v>8.628</v>
+        <v>10.752</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>209.78</v>
+        <v>318.18</v>
       </c>
       <c r="D39" t="n">
-        <v>255.16</v>
+        <v>362.6</v>
       </c>
       <c r="E39" t="n">
-        <v>16.424</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>367.32</v>
+        <v>320.68</v>
       </c>
       <c r="D40" t="n">
-        <v>432.02</v>
+        <v>420.68</v>
       </c>
       <c r="E40" t="n">
-        <v>5.268</v>
+        <v>7.332</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>375.96</v>
+        <v>276.84</v>
       </c>
       <c r="D41" t="n">
-        <v>435.66</v>
+        <v>319.38</v>
       </c>
       <c r="E41" t="n">
-        <v>4.924</v>
+        <v>9.012</v>
       </c>
     </row>
   </sheetData>
